--- a/biology/Microbiologie/Difflugia/Difflugia.xlsx
+++ b/biology/Microbiologie/Difflugia/Difflugia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Difflugia est le plus grand genre de l'ordre des Arcellinida, un des nombreux groupes des Tubulinea dans l'embranchement des Amoebozoa.
 </t>
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En 1827, dans une encyclopédie allemande Nitzsch propose la création de nouveaux genres de paramécies (« M. Dutrochet, en France, avait étudié les Rotifères et les Tubicolaires ; M. Leclerc avait fait connaître les Difflugies ; et Losana, en Italie, avait décrit des Amibes, des Kolpodes et des Cyclides dont il multipliait les espèces sans raison et sans mesure », selon Dujardin (1841). Léon Leclerc est l'auteur de la description de Difflugia[1], un animal microscopique qu'il observe dans les environs de Laval.
-Selon NCBI  (6 octobre 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En 1827, dans une encyclopédie allemande Nitzsch propose la création de nouveaux genres de paramécies (« M. Dutrochet, en France, avait étudié les Rotifères et les Tubicolaires ; M. Leclerc avait fait connaître les Difflugies ; et Losana, en Italie, avait décrit des Amibes, des Kolpodes et des Cyclides dont il multipliait les espèces sans raison et sans mesure », selon Dujardin (1841). Léon Leclerc est l'auteur de la description de Difflugia, un animal microscopique qu'il observe dans les environs de Laval.
+Selon NCBI  (6 octobre 2018) :
 Difflugia acuminata Ehrenberg, 1838
 Difflugia bacillariarum Perty, 1849
 Difflugia bryophila (Penard, 1902) Jung, 1942
